--- a/data/trans_dic/P38B-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,74; 91,92</t>
+          <t>85,64; 91,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,85; 88,85</t>
+          <t>82,22; 89,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,81; 88,8</t>
+          <t>81,89; 89,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>87,18; 94,4</t>
+          <t>86,94; 93,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,64; 93,59</t>
+          <t>87,6; 93,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,71; 92,16</t>
+          <t>86,44; 91,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,31; 91,86</t>
+          <t>87,43; 91,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85,49; 90,3</t>
+          <t>85,26; 90,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,87; 89,5</t>
+          <t>84,82; 89,41</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,91; 93,05</t>
+          <t>87,15; 93,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,02; 90,35</t>
+          <t>83,01; 90,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,35; 89,67</t>
+          <t>82,25; 89,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>87,22; 94,09</t>
+          <t>87,64; 94,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>85,0; 91,86</t>
+          <t>84,56; 91,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,08; 90,95</t>
+          <t>84,15; 90,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>88,36; 92,8</t>
+          <t>88,31; 92,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>85,38; 90,08</t>
+          <t>85,06; 89,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>84,36; 89,37</t>
+          <t>84,52; 89,33</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,38; 87,57</t>
+          <t>81,37; 87,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,72; 89,48</t>
+          <t>83,64; 89,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,8; 88,72</t>
+          <t>20,35; 88,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,18; 94,28</t>
+          <t>86,84; 94,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>83,12; 93,14</t>
+          <t>83,1; 93,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,94; 95,44</t>
+          <t>87,31; 95,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>83,99; 88,74</t>
+          <t>84,09; 88,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>84,52; 89,93</t>
+          <t>84,56; 89,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,55; 89,81</t>
+          <t>26,99; 89,9</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,39; 86,82</t>
+          <t>82,49; 86,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,21; 86,36</t>
+          <t>82,07; 86,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,77; 85,1</t>
+          <t>78,15; 85,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,12; 89,23</t>
+          <t>83,83; 89,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,22; 88,13</t>
+          <t>82,9; 88,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,33; 95,89</t>
+          <t>88,25; 95,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,66; 87,08</t>
+          <t>83,85; 87,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,41; 86,71</t>
+          <t>83,23; 86,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>84,05; 90,87</t>
+          <t>84,09; 90,69</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,8; 83,81</t>
+          <t>76,71; 83,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,44; 83,71</t>
+          <t>77,19; 83,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,01; 84,36</t>
+          <t>75,87; 84,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>87,34; 91,82</t>
+          <t>87,72; 92,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,44; 89,37</t>
+          <t>84,22; 89,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>62,58; 91,1</t>
+          <t>60,99; 91,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>84,0; 87,97</t>
+          <t>83,96; 87,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>82,13; 86,14</t>
+          <t>82,11; 86,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>67,83; 87,43</t>
+          <t>66,83; 87,47</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>38,47; 50,26</t>
+          <t>38,37; 50,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>47,31; 59,51</t>
+          <t>48,38; 60,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,67; 56,42</t>
+          <t>34,72; 56,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>82,45; 86,8</t>
+          <t>82,46; 86,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>84,96; 89,03</t>
+          <t>84,97; 89,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>77,46; 84,1</t>
+          <t>78,22; 84,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>74,15; 78,95</t>
+          <t>74,49; 79,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>77,78; 82,38</t>
+          <t>78,07; 82,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>69,13; 76,6</t>
+          <t>68,6; 76,23</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>80,67; 83,53</t>
+          <t>80,76; 83,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>80,53; 83,21</t>
+          <t>80,55; 83,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>57,12; 81,53</t>
+          <t>57,66; 81,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>86,75; 89,01</t>
+          <t>86,75; 89,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>86,25; 88,49</t>
+          <t>86,19; 88,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>80,85; 89,04</t>
+          <t>81,21; 89,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>84,19; 85,94</t>
+          <t>84,2; 85,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>83,88; 85,62</t>
+          <t>83,86; 85,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>71,26; 84,78</t>
+          <t>69,79; 84,82</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han medido los niveles de colesterol por prescripción médica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1118</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>386310</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>367453</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>432364</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>283390</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>315265</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>400966</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>669699</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>682717</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>833330</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>371174; 397486</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>352821; 382354</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>413713; 450321</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>271643; 293649</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>304007; 324638</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>386776; 411393</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>652103; 685230</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>661773; 699083</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>808054; 851806</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>376652</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>326099</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>389535</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>305993</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>329360</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>336336</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>682646</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>655460</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>725871</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>363405; 389110</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>310472; 338126</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>371960; 404376</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>294499; 316001</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>314790; 341811</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>321475; 346853</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>665040; 697712</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>634775; 671590</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>705107; 745218</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>527793</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>449596</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>371558</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>237396</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>146871</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>153954</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>765189</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>596466</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>525512</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>507168; 544948</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>434158; 464086</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>136011; 592646</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>225903; 245823</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>137317; 154464</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>145724; 159026</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>742880; 785156</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>578641; 613545</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>225453; 750784</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1525</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1602</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2092</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>974925</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>961020</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>848764</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>661549</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>704889</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>892218</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1636473</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1665909</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1740982</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>948332; 1000057</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>934668; 984593</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>808063; 879196</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>639968; 679551</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>681608; 723582</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>862048; 932016</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1604112; 1668107</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1632156; 1694484</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1690888; 1823712</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1178</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1088</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1623</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>408952</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>496568</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>381549</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>677644</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>641220</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>698754</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1086597</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1137790</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1080303</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>390178; 426651</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>475562; 515396</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>359643; 401274</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>661379; 694238</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>619918; 657662</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>513095; 768546</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1060105; 1108806</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1110237; 1163519</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>879112; 1150502</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>117319</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>150755</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>110107</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>936209</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>939107</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>618142</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1053529</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1089863</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>728249</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>102031; 134358</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>135453; 169071</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>83509; 136738</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>910588; 960560</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>915880; 959634</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>594389; 640466</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1020740; 1084054</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1060106; 1117573</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>686297; 762609</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2598</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2629</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2821</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2868</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2877</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>4753</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>5466</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5506</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>7574</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2791950</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2751492</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2533878</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3102183</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3076713</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3100369</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>5894133</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>5828204</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5634247</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2744144; 2836625</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2704095; 2793431</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1945543; 2751376</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3062542; 3142030</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3034585; 3112241</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2902765; 3194823</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>5833272; 5948291</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5767872; 5886470</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4849676; 5894036</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P38B-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
